--- a/Suitability_Curves_Data/MZB_Landquart.xlsx
+++ b/Suitability_Curves_Data/MZB_Landquart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\2._Semester_FS23\Projekt_Work_Research_Group_2\Habitatmodellierung\Habitat_Model\Habitat_Model\Hydrodynamic_Model_Data\Suitability_Curves_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\2._Semester_FS23\Projekt_Work_Research_Group_2\Habitatmodellierung\Habitat_Model\PWRG2\Suitability_Curves_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666477E-8326-4252-A194-51AE98643277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B49134F-F3A5-4EF1-9C4C-DE45696C363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>water depth</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Tanno 2012 (summer; Baetis sp.)</t>
-  </si>
-  <si>
-    <t>Tanno 2017 (winter; Baetis sp.)</t>
   </si>
   <si>
     <t>Schneider 2017 (Allogamus auricollis)</t>
@@ -574,7 +571,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -602,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -611,18 +608,18 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
@@ -640,7 +637,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
@@ -706,7 +703,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -717,7 +714,7 @@
       <c r="A13" s="13"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -746,7 +743,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -775,7 +772,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
